--- a/double_limit_results_test.xlsx
+++ b/double_limit_results_test.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="双响炮列表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5239" uniqueCount="2475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5244" uniqueCount="2475">
   <si>
     <t>代码</t>
   </si>
@@ -8447,20 +8460,20 @@
   <sheetPr/>
   <dimension ref="A1:I1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="9.77678571428571" customWidth="1"/>
-    <col min="3" max="4" width="15.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="6.71428571428571" customWidth="1"/>
-    <col min="6" max="6" width="9.71428571428571" customWidth="1"/>
+    <col min="1" max="1" width="10.712962962963" customWidth="1"/>
+    <col min="2" max="2" width="9.77777777777778" customWidth="1"/>
+    <col min="3" max="4" width="15.712962962963" customWidth="1"/>
+    <col min="5" max="5" width="6.71296296296296" customWidth="1"/>
+    <col min="6" max="6" width="9.71296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34" spans="1:6">
+    <row r="1" ht="28.8" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10811,7 +10824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>358</v>
       </c>
@@ -10830,8 +10843,11 @@
       <c r="F101" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>360</v>
       </c>
@@ -10850,8 +10866,11 @@
       <c r="F102" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>293</v>
       </c>
@@ -10870,8 +10889,11 @@
       <c r="F103" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>365</v>
       </c>
@@ -10890,8 +10912,11 @@
       <c r="F104" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>333</v>
       </c>
@@ -10909,6 +10934,9 @@
       </c>
       <c r="F105" t="s">
         <v>369</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:6">

--- a/double_limit_results_test.xlsx
+++ b/double_limit_results_test.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13500"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="双响炮列表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -8458,22 +8445,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1024"/>
+  <dimension ref="A1:J1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="K91" sqref="K91"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="10.712962962963" customWidth="1"/>
-    <col min="2" max="2" width="9.77777777777778" customWidth="1"/>
-    <col min="3" max="4" width="15.712962962963" customWidth="1"/>
-    <col min="5" max="5" width="6.71296296296296" customWidth="1"/>
-    <col min="6" max="6" width="9.71296296296296" customWidth="1"/>
+    <col min="1" max="1" width="10.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="9.77678571428571" customWidth="1"/>
+    <col min="3" max="4" width="15.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="6.71428571428571" customWidth="1"/>
+    <col min="6" max="6" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:6">
+    <row r="1" ht="34" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9068,7 +9055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -9090,8 +9077,9 @@
       <c r="G27" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9113,8 +9101,9 @@
       <c r="G28" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>98</v>
       </c>
@@ -9136,8 +9125,9 @@
       <c r="G29" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -9159,6 +9149,7 @@
       <c r="G30" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
@@ -9206,7 +9197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -9228,6 +9219,7 @@
       <c r="G33" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
@@ -9252,7 +9244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -9274,8 +9266,9 @@
       <c r="G35" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -9297,8 +9290,9 @@
       <c r="G36" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>126</v>
       </c>
@@ -9320,8 +9314,9 @@
       <c r="G37" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -9343,11 +9338,12 @@
       <c r="G38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I38" t="s">
+      <c r="H38" s="2"/>
+      <c r="J38" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>135</v>
       </c>
@@ -9369,8 +9365,9 @@
       <c r="G39" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -9392,8 +9389,9 @@
       <c r="G40" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -9415,11 +9413,12 @@
       <c r="G41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2"/>
+      <c r="I41" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -9441,11 +9440,12 @@
       <c r="G42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>154</v>
       </c>
@@ -9467,11 +9467,12 @@
       <c r="G43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="2"/>
+      <c r="I43" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -9493,11 +9494,12 @@
       <c r="G44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="2"/>
+      <c r="I44" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -9519,6 +9521,7 @@
       <c r="G45" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
@@ -9543,7 +9546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>171</v>
       </c>
@@ -9565,11 +9568,14 @@
       <c r="G47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="2">
+        <v>9.32</v>
+      </c>
+      <c r="I47" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>176</v>
       </c>
@@ -9591,11 +9597,12 @@
       <c r="G48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="2"/>
+      <c r="I48" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -9617,11 +9624,12 @@
       <c r="G49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="2"/>
+      <c r="I49" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -9643,8 +9651,9 @@
       <c r="G50" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>190</v>
       </c>
@@ -9666,11 +9675,12 @@
       <c r="G51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="2"/>
+      <c r="I51" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>123</v>
       </c>
@@ -9692,8 +9702,9 @@
       <c r="G52" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>196</v>
       </c>
@@ -9715,8 +9726,9 @@
       <c r="G53" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>199</v>
       </c>
@@ -9738,8 +9750,9 @@
       <c r="G54" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>203</v>
       </c>
@@ -9761,8 +9774,9 @@
       <c r="G55" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -9784,11 +9798,12 @@
       <c r="G56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="2"/>
+      <c r="I56" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>212</v>
       </c>
@@ -9810,11 +9825,12 @@
       <c r="G57" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="2"/>
+      <c r="I57" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>215</v>
       </c>
@@ -9836,11 +9852,12 @@
       <c r="G58" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="2"/>
+      <c r="I58" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>218</v>
       </c>
@@ -9862,8 +9879,9 @@
       <c r="G59" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>221</v>
       </c>
@@ -9885,11 +9903,12 @@
       <c r="G60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="2"/>
+      <c r="I60" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>227</v>
       </c>
@@ -9911,8 +9930,9 @@
       <c r="G61" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>230</v>
       </c>
@@ -9934,8 +9954,9 @@
       <c r="G62" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>235</v>
       </c>
@@ -9957,11 +9978,12 @@
       <c r="G63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="2"/>
+      <c r="I63" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>239</v>
       </c>
@@ -9983,8 +10005,9 @@
       <c r="G64" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>242</v>
       </c>
@@ -10006,11 +10029,12 @@
       <c r="G65" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="2"/>
+      <c r="I65" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>246</v>
       </c>
@@ -10032,8 +10056,9 @@
       <c r="G66" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>250</v>
       </c>
@@ -10055,8 +10080,9 @@
       <c r="G67" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>254</v>
       </c>
@@ -10078,8 +10104,9 @@
       <c r="G68" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>257</v>
       </c>
@@ -10101,8 +10128,9 @@
       <c r="G69" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>261</v>
       </c>
@@ -10124,8 +10152,9 @@
       <c r="G70" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>264</v>
       </c>
@@ -10147,8 +10176,9 @@
       <c r="G71" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>266</v>
       </c>
@@ -10170,8 +10200,9 @@
       <c r="G72" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -10193,8 +10224,9 @@
       <c r="G73" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>274</v>
       </c>
@@ -10216,8 +10248,9 @@
       <c r="G74" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>278</v>
       </c>
@@ -10239,8 +10272,9 @@
       <c r="G75" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>280</v>
       </c>
@@ -10262,8 +10296,9 @@
       <c r="G76" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>283</v>
       </c>
@@ -10285,8 +10320,9 @@
       <c r="G77" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>288</v>
       </c>
@@ -10308,8 +10344,9 @@
       <c r="G78" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>290</v>
       </c>
@@ -10331,8 +10368,9 @@
       <c r="G79" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>293</v>
       </c>
@@ -10354,8 +10392,9 @@
       <c r="G80" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>185</v>
       </c>
@@ -10377,8 +10416,9 @@
       <c r="G81" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>299</v>
       </c>
@@ -10400,8 +10440,9 @@
       <c r="G82" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>303</v>
       </c>
@@ -10423,11 +10464,12 @@
       <c r="G83" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="2"/>
+      <c r="I83" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>307</v>
       </c>
@@ -10449,6 +10491,7 @@
       <c r="G84" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
@@ -10473,7 +10516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>314</v>
       </c>
@@ -10495,8 +10538,9 @@
       <c r="G86" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>316</v>
       </c>
@@ -10518,7 +10562,8 @@
       <c r="G87" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="2"/>
+      <c r="I87" t="s">
         <v>320</v>
       </c>
     </row>
@@ -10545,7 +10590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>290</v>
       </c>
@@ -10567,8 +10612,9 @@
       <c r="G89" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>250</v>
       </c>
@@ -10590,8 +10636,9 @@
       <c r="G90" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>326</v>
       </c>
@@ -10613,8 +10660,9 @@
       <c r="G91" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>328</v>
       </c>
@@ -10636,8 +10684,9 @@
       <c r="G92" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>333</v>
       </c>
@@ -10659,8 +10708,9 @@
       <c r="G93" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>337</v>
       </c>
@@ -10682,11 +10732,12 @@
       <c r="G94" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="2"/>
+      <c r="I94" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>341</v>
       </c>
@@ -10708,8 +10759,9 @@
       <c r="G95" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>344</v>
       </c>
@@ -10731,8 +10783,9 @@
       <c r="G96" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>347</v>
       </c>
@@ -10754,8 +10807,9 @@
       <c r="G97" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>350</v>
       </c>
@@ -10777,8 +10831,9 @@
       <c r="G98" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>354</v>
       </c>
@@ -10800,8 +10855,9 @@
       <c r="G99" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>246</v>
       </c>
@@ -10823,8 +10879,9 @@
       <c r="G100" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>358</v>
       </c>
@@ -10846,8 +10903,9 @@
       <c r="G101" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>360</v>
       </c>
@@ -10869,8 +10927,9 @@
       <c r="G102" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>293</v>
       </c>
@@ -10892,6 +10951,7 @@
       <c r="G103" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H103" s="2"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">

--- a/double_limit_results_test.xlsx
+++ b/double_limit_results_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26400" windowHeight="13160"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="双响炮列表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5274" uniqueCount="2481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5282" uniqueCount="2481">
   <si>
     <t>代码</t>
   </si>
@@ -8465,8 +8465,8 @@
   <sheetPr/>
   <dimension ref="A1:J1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="H131" sqref="H131"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -11727,7 +11727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>462</v>
       </c>
@@ -11746,8 +11746,11 @@
       <c r="F137" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>466</v>
       </c>
@@ -11766,8 +11769,11 @@
       <c r="F138" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>470</v>
       </c>
@@ -11786,8 +11792,11 @@
       <c r="F139" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>473</v>
       </c>
@@ -11806,8 +11815,11 @@
       <c r="F140" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>477</v>
       </c>
@@ -11826,8 +11838,11 @@
       <c r="F141" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>480</v>
       </c>
@@ -11846,8 +11861,11 @@
       <c r="F142" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>485</v>
       </c>
@@ -11866,8 +11884,11 @@
       <c r="F143" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>487</v>
       </c>
@@ -11885,6 +11906,9 @@
       </c>
       <c r="F144" t="s">
         <v>387</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:6">
